--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H2">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J2">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N2">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q2">
-        <v>287.1875366904513</v>
+        <v>229.56220912302</v>
       </c>
       <c r="R2">
-        <v>2584.687830214062</v>
+        <v>2066.05988210718</v>
       </c>
       <c r="S2">
-        <v>0.02686890916569544</v>
+        <v>0.01645479923802523</v>
       </c>
       <c r="T2">
-        <v>0.02686890916569545</v>
+        <v>0.01645479923802523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H3">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J3">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.193852</v>
       </c>
       <c r="O3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q3">
-        <v>102.5094232833093</v>
+        <v>111.9118212160787</v>
       </c>
       <c r="R3">
-        <v>922.5848095497839</v>
+        <v>1007.206390944708</v>
       </c>
       <c r="S3">
-        <v>0.009590654297076402</v>
+        <v>0.008021732137477007</v>
       </c>
       <c r="T3">
-        <v>0.009590654297076402</v>
+        <v>0.008021732137477009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H4">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J4">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N4">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q4">
-        <v>1057.113617628255</v>
+        <v>1325.066003516264</v>
       </c>
       <c r="R4">
-        <v>9514.022558654291</v>
+        <v>11925.59403164638</v>
       </c>
       <c r="S4">
-        <v>0.09890223683518805</v>
+        <v>0.09497946176893682</v>
       </c>
       <c r="T4">
-        <v>0.09890223683518806</v>
+        <v>0.09497946176893682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H5">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I5">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J5">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N5">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q5">
-        <v>25.24474495527</v>
+        <v>22.171542321577</v>
       </c>
       <c r="R5">
-        <v>227.20270459743</v>
+        <v>199.543880894193</v>
       </c>
       <c r="S5">
-        <v>0.002361866976997023</v>
+        <v>0.001589234914111763</v>
       </c>
       <c r="T5">
-        <v>0.002361866976997023</v>
+        <v>0.001589234914111764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.168014</v>
+        <v>32.935093</v>
       </c>
       <c r="H6">
-        <v>90.504042</v>
+        <v>98.80527900000001</v>
       </c>
       <c r="I6">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="J6">
-        <v>0.2349227827725553</v>
+        <v>0.247867546118624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N6">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O6">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P6">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q6">
-        <v>1038.909855852477</v>
+        <v>1769.308216942223</v>
       </c>
       <c r="R6">
-        <v>9350.188702672296</v>
+        <v>15923.77395248001</v>
       </c>
       <c r="S6">
-        <v>0.09719911549759841</v>
+        <v>0.1268223180600732</v>
       </c>
       <c r="T6">
-        <v>0.09719911549759841</v>
+        <v>0.1268223180600732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>197.801769</v>
       </c>
       <c r="I7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J7">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N7">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O7">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P7">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q7">
-        <v>627.6648151485176</v>
+        <v>459.56867405922</v>
       </c>
       <c r="R7">
-        <v>5648.983336336659</v>
+        <v>4136.11806653298</v>
       </c>
       <c r="S7">
-        <v>0.05872354037043861</v>
+        <v>0.03294144230715893</v>
       </c>
       <c r="T7">
-        <v>0.05872354037043862</v>
+        <v>0.03294144230715894</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>197.801769</v>
       </c>
       <c r="I8">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J8">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>10.193852</v>
       </c>
       <c r="O8">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P8">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q8">
         <v>224.0402176137986</v>
@@ -948,10 +948,10 @@
         <v>2016.361958524188</v>
       </c>
       <c r="S8">
-        <v>0.02096092443947601</v>
+        <v>0.01605898817650323</v>
       </c>
       <c r="T8">
-        <v>0.02096092443947601</v>
+        <v>0.01605898817650323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>197.801769</v>
       </c>
       <c r="I9">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J9">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N9">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O9">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P9">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q9">
-        <v>2310.382376080599</v>
+        <v>2652.696315318104</v>
       </c>
       <c r="R9">
-        <v>20793.44138472539</v>
+        <v>23874.26683786293</v>
       </c>
       <c r="S9">
-        <v>0.2161565049664539</v>
+        <v>0.1901427306992733</v>
       </c>
       <c r="T9">
-        <v>0.2161565049664539</v>
+        <v>0.1901427306992733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>197.801769</v>
       </c>
       <c r="I10">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J10">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N10">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O10">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P10">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q10">
-        <v>55.17383643601499</v>
+        <v>44.38599169044699</v>
       </c>
       <c r="R10">
-        <v>496.5645279241349</v>
+        <v>399.4739252140229</v>
       </c>
       <c r="S10">
-        <v>0.005161995595651887</v>
+        <v>0.00318154536427016</v>
       </c>
       <c r="T10">
-        <v>0.005161995595651887</v>
+        <v>0.00318154536427016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>197.801769</v>
       </c>
       <c r="I11">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988433</v>
       </c>
       <c r="J11">
-        <v>0.5134372010789768</v>
+        <v>0.4962147730988432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N11">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O11">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P11">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q11">
-        <v>2270.597011779374</v>
+        <v>3542.040453298122</v>
       </c>
       <c r="R11">
-        <v>20435.37310601437</v>
+        <v>31878.3640796831</v>
       </c>
       <c r="S11">
-        <v>0.2124342357069564</v>
+        <v>0.2538900665516375</v>
       </c>
       <c r="T11">
-        <v>0.2124342357069564</v>
+        <v>0.2538900665516375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H12">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I12">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J12">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N12">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O12">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P12">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q12">
-        <v>95.05173851428734</v>
+        <v>93.84001710720001</v>
       </c>
       <c r="R12">
-        <v>855.4656466285861</v>
+        <v>844.5601539648001</v>
       </c>
       <c r="S12">
-        <v>0.008892922574612329</v>
+        <v>0.006726362531057331</v>
       </c>
       <c r="T12">
-        <v>0.008892922574612331</v>
+        <v>0.006726362531057332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H13">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I13">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J13">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.193852</v>
       </c>
       <c r="O13">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P13">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q13">
-        <v>33.92800053046133</v>
+        <v>45.74710819143111</v>
       </c>
       <c r="R13">
-        <v>305.352004774152</v>
+        <v>411.72397372288</v>
       </c>
       <c r="S13">
-        <v>0.003174261581585348</v>
+        <v>0.00327910889116258</v>
       </c>
       <c r="T13">
-        <v>0.003174261581585349</v>
+        <v>0.00327910889116258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H14">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I14">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J14">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N14">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O14">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P14">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q14">
-        <v>349.8776037450307</v>
+        <v>541.6580408123733</v>
       </c>
       <c r="R14">
-        <v>3148.898433705276</v>
+        <v>4874.92236731136</v>
       </c>
       <c r="S14">
-        <v>0.0327341139607643</v>
+        <v>0.03882552947751675</v>
       </c>
       <c r="T14">
-        <v>0.0327341139607643</v>
+        <v>0.03882552947751675</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H15">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I15">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J15">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N15">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O15">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P15">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q15">
-        <v>8.35536570981</v>
+        <v>9.063242241386666</v>
       </c>
       <c r="R15">
-        <v>75.19829138829</v>
+        <v>81.56918017248</v>
       </c>
       <c r="S15">
-        <v>0.0007817176361139619</v>
+        <v>0.0006496445216193582</v>
       </c>
       <c r="T15">
-        <v>0.000781717636113962</v>
+        <v>0.0006496445216193583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.984842</v>
+        <v>13.46314666666667</v>
       </c>
       <c r="H16">
-        <v>29.954526</v>
+        <v>40.38944</v>
       </c>
       <c r="I16">
-        <v>0.07775344005688564</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="J16">
-        <v>0.07775344005688566</v>
+        <v>0.1013228390550407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N16">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O16">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P16">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q16">
-        <v>343.8526236075654</v>
+        <v>723.2545547459555</v>
       </c>
       <c r="R16">
-        <v>3094.673612468088</v>
+        <v>6509.2909927136</v>
       </c>
       <c r="S16">
-        <v>0.03217042430380971</v>
+        <v>0.0518421936336847</v>
       </c>
       <c r="T16">
-        <v>0.03217042430380971</v>
+        <v>0.05184219363368471</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H17">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I17">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J17">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N17">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O17">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P17">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q17">
-        <v>58.07261594703511</v>
+        <v>42.50608608030001</v>
       </c>
       <c r="R17">
-        <v>522.653543523316</v>
+        <v>382.5547747227001</v>
       </c>
       <c r="S17">
-        <v>0.005433201805609841</v>
+        <v>0.003046795531013289</v>
       </c>
       <c r="T17">
-        <v>0.005433201805609843</v>
+        <v>0.003046795531013289</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H18">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I18">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J18">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.193852</v>
       </c>
       <c r="O18">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P18">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q18">
-        <v>20.72858188027911</v>
+        <v>20.72176219329111</v>
       </c>
       <c r="R18">
-        <v>186.557236922512</v>
+        <v>186.49585973962</v>
       </c>
       <c r="S18">
-        <v>0.001939340370035696</v>
+        <v>0.001485316063350754</v>
       </c>
       <c r="T18">
-        <v>0.001939340370035696</v>
+        <v>0.001485316063350754</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H19">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I19">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J19">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N19">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O19">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P19">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q19">
-        <v>213.7605058922729</v>
+        <v>245.3512266792933</v>
       </c>
       <c r="R19">
-        <v>1923.844553030456</v>
+        <v>2208.16104011364</v>
       </c>
       <c r="S19">
-        <v>0.01999916738108068</v>
+        <v>0.01758654089117732</v>
       </c>
       <c r="T19">
-        <v>0.01999916738108068</v>
+        <v>0.01758654089117732</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H20">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I20">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J20">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N20">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O20">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P20">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q20">
-        <v>5.10477716186</v>
+        <v>4.105316332571666</v>
       </c>
       <c r="R20">
-        <v>45.94299445674</v>
+        <v>36.947846993145</v>
       </c>
       <c r="S20">
-        <v>0.0004775966097058463</v>
+        <v>0.0002942651419809795</v>
       </c>
       <c r="T20">
-        <v>0.0004775966097058464</v>
+        <v>0.0002942651419809796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.100318666666666</v>
+        <v>6.098311666666667</v>
       </c>
       <c r="H21">
-        <v>18.300956</v>
+        <v>18.294935</v>
       </c>
       <c r="I21">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="J21">
-        <v>0.04750408286646571</v>
+        <v>0.04589552998326869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N21">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O21">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P21">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q21">
-        <v>210.0794963381031</v>
+        <v>327.6077872714055</v>
       </c>
       <c r="R21">
-        <v>1890.715467042928</v>
+        <v>2948.47008544265</v>
       </c>
       <c r="S21">
-        <v>0.01965477670003365</v>
+        <v>0.02348261235574634</v>
       </c>
       <c r="T21">
-        <v>0.01965477670003365</v>
+        <v>0.02348261235574635</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H22">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I22">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J22">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N22">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O22">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P22">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q22">
-        <v>154.4996040050275</v>
+        <v>100.67172780342</v>
       </c>
       <c r="R22">
-        <v>1390.496436045247</v>
+        <v>906.0455502307801</v>
       </c>
       <c r="S22">
-        <v>0.0144547910190875</v>
+        <v>0.007216053009241952</v>
       </c>
       <c r="T22">
-        <v>0.01445479101908751</v>
+        <v>0.007216053009241953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H23">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I23">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J23">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.193852</v>
       </c>
       <c r="O23">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P23">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q23">
-        <v>55.14746735380044</v>
+        <v>49.07757442520755</v>
       </c>
       <c r="R23">
-        <v>496.327206184204</v>
+        <v>441.698169826868</v>
       </c>
       <c r="S23">
-        <v>0.005159528537077652</v>
+        <v>0.003517833520339003</v>
       </c>
       <c r="T23">
-        <v>0.005159528537077654</v>
+        <v>0.003517833520339003</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H24">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I24">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J24">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N24">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O24">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P24">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q24">
-        <v>568.7002896923335</v>
+        <v>581.0916550122106</v>
       </c>
       <c r="R24">
-        <v>5118.302607231002</v>
+        <v>5229.824895109896</v>
       </c>
       <c r="S24">
-        <v>0.0532068926191533</v>
+        <v>0.04165209316745033</v>
       </c>
       <c r="T24">
-        <v>0.05320689261915332</v>
+        <v>0.04165209316745032</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H25">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I25">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J25">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N25">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O25">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P25">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q25">
-        <v>13.581031905995</v>
+        <v>9.723061483450332</v>
       </c>
       <c r="R25">
-        <v>122.229287153955</v>
+        <v>87.50755335105299</v>
       </c>
       <c r="S25">
-        <v>0.001270624473693339</v>
+        <v>0.0006969397328086065</v>
       </c>
       <c r="T25">
-        <v>0.00127062447369334</v>
+        <v>0.0006969397328086065</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.22962566666667</v>
+        <v>14.44328633333333</v>
       </c>
       <c r="H26">
-        <v>48.68887700000001</v>
+        <v>43.329859</v>
       </c>
       <c r="I26">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442235</v>
       </c>
       <c r="J26">
-        <v>0.1263824932251166</v>
+        <v>0.1086993117442234</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N26">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O26">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P26">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q26">
-        <v>558.9071279898085</v>
+        <v>775.9086998544676</v>
       </c>
       <c r="R26">
-        <v>5030.164151908277</v>
+        <v>6983.178298690209</v>
       </c>
       <c r="S26">
-        <v>0.05229065657610478</v>
+        <v>0.05561639231438355</v>
       </c>
       <c r="T26">
-        <v>0.05229065657610479</v>
+        <v>0.05561639231438356</v>
       </c>
     </row>
   </sheetData>
